--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2053.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2053.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.158697360629271</v>
+        <v>1.256752729415894</v>
       </c>
       <c r="B1">
-        <v>2.59253775756204</v>
+        <v>2.207502365112305</v>
       </c>
       <c r="C1">
-        <v>5.276230865150056</v>
+        <v>4.982283592224121</v>
       </c>
       <c r="D1">
-        <v>2.745794229285667</v>
+        <v>1.988591551780701</v>
       </c>
       <c r="E1">
-        <v>1.212054300938875</v>
+        <v>1.073990345001221</v>
       </c>
     </row>
   </sheetData>
